--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -289,18 +289,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>BLOGGER</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>ADMIN</t>
   </si>
   <si>
-    <t>BLOGGER</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>filterFactory</t>
   </si>
   <si>
@@ -319,22 +319,22 @@
     <t>allowedMethods</t>
   </si>
   <si>
+    <t>ROLES</t>
+  </si>
+  <si>
     <t>REALM_ACCESS</t>
   </si>
   <si>
-    <t>ROLES</t>
+    <t>keycloakRealmRoleConverter</t>
+  </si>
+  <si>
+    <t>java.util.List</t>
   </si>
   <si>
     <t>jwkSetUri</t>
   </si>
   <si>
-    <t>java.util.List</t>
-  </si>
-  <si>
     <t>disabledSecurityEndpoints</t>
-  </si>
-  <si>
-    <t>keycloakRealmRoleConverter</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -1956,10 +1956,10 @@
         <v>89</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1970,10 +1970,10 @@
         <v>90</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1984,10 +1984,10 @@
         <v>91</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1998,10 +1998,10 @@
         <v>92</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2113,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -2141,7 +2141,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -2163,7 +2163,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>32</v>
@@ -2177,7 +2177,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>32</v>
@@ -2191,13 +2191,13 @@
         <v>68</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2412,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>110</v>

--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="129">
   <si>
     <t>Class Name</t>
   </si>
@@ -292,15 +294,15 @@
     <t>BLOGGER</t>
   </si>
   <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
     <t>filterFactory</t>
   </si>
   <si>
@@ -310,33 +312,33 @@
     <t>allowedHeaders</t>
   </si>
   <si>
+    <t>allowedMethods</t>
+  </si>
+  <si>
+    <t>allowedOrigins</t>
+  </si>
+  <si>
     <t>exposedHeaders</t>
   </si>
   <si>
-    <t>allowedOrigins</t>
-  </si>
-  <si>
-    <t>allowedMethods</t>
+    <t>REALM_ACCESS</t>
   </si>
   <si>
     <t>ROLES</t>
   </si>
   <si>
-    <t>REALM_ACCESS</t>
+    <t>disabledSecurityEndpoints</t>
+  </si>
+  <si>
+    <t>java.util.List</t>
+  </si>
+  <si>
+    <t>jwkSetUri</t>
   </si>
   <si>
     <t>keycloakRealmRoleConverter</t>
   </si>
   <si>
-    <t>java.util.List</t>
-  </si>
-  <si>
-    <t>jwkSetUri</t>
-  </si>
-  <si>
-    <t>disabledSecurityEndpoints</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -374,6 +376,39 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -1885,6 +1920,437 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
@@ -1970,10 +2436,10 @@
         <v>90</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1998,10 +2464,10 @@
         <v>92</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -2113,7 +2579,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -2121,7 +2587,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>32</v>
@@ -2135,13 +2601,13 @@
         <v>68</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -2149,13 +2615,13 @@
         <v>68</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2163,7 +2629,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>32</v>
@@ -2183,7 +2649,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -2191,7 +2657,7 @@
         <v>68</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>32</v>
@@ -2412,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>110</v>

--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -291,15 +291,15 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
     <t>BLOGGER</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -309,34 +309,34 @@
     <t>org.springframework.cloud.gateway.filter.factory.TokenRelayGatewayFilterFactory</t>
   </si>
   <si>
+    <t>allowedOrigins</t>
+  </si>
+  <si>
+    <t>exposedHeaders</t>
+  </si>
+  <si>
     <t>allowedHeaders</t>
   </si>
   <si>
     <t>allowedMethods</t>
   </si>
   <si>
-    <t>allowedOrigins</t>
-  </si>
-  <si>
-    <t>exposedHeaders</t>
+    <t>ROLES</t>
   </si>
   <si>
     <t>REALM_ACCESS</t>
   </si>
   <si>
-    <t>ROLES</t>
-  </si>
-  <si>
     <t>disabledSecurityEndpoints</t>
   </si>
   <si>
     <t>java.util.List</t>
   </si>
   <si>
+    <t>keycloakRealmRoleConverter</t>
+  </si>
+  <si>
     <t>jwkSetUri</t>
-  </si>
-  <si>
-    <t>keycloakRealmRoleConverter</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -2422,10 +2422,10 @@
         <v>89</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2450,10 +2450,10 @@
         <v>91</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2587,7 +2587,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>32</v>
@@ -2601,7 +2601,7 @@
         <v>68</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>32</v>
@@ -2615,13 +2615,13 @@
         <v>68</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -2629,7 +2629,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>32</v>
@@ -2643,7 +2643,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>32</v>
@@ -2657,13 +2657,13 @@
         <v>68</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="138">
   <si>
     <t>Class Name</t>
   </si>
@@ -291,33 +291,33 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>ADMIN</t>
+    <t>name</t>
   </si>
   <si>
     <t>BLOGGER</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>filterFactory</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.filter.factory.TokenRelayGatewayFilterFactory</t>
   </si>
   <si>
+    <t>allowedHeaders</t>
+  </si>
+  <si>
     <t>allowedOrigins</t>
   </si>
   <si>
     <t>exposedHeaders</t>
   </si>
   <si>
-    <t>allowedHeaders</t>
-  </si>
-  <si>
     <t>allowedMethods</t>
   </si>
   <si>
@@ -327,18 +327,18 @@
     <t>REALM_ACCESS</t>
   </si>
   <si>
+    <t>keycloakRealmRoleConverter</t>
+  </si>
+  <si>
+    <t>java.util.List</t>
+  </si>
+  <si>
+    <t>jwkSetUri</t>
+  </si>
+  <si>
     <t>disabledSecurityEndpoints</t>
   </si>
   <si>
-    <t>java.util.List</t>
-  </si>
-  <si>
-    <t>keycloakRealmRoleConverter</t>
-  </si>
-  <si>
-    <t>jwkSetUri</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -381,34 +381,61 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>12</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>KeycloakRole(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>GatewayConfiguration(org.springframework.cloud.gateway.filter.factory.TokenRelayGatewayFilterFactory)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>CrossOriginRequestSharingFilter()</t>
+  </si>
+  <si>
+    <t>GatewayApplication()</t>
+  </si>
+  <si>
+    <t>GatewayController()</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>KeycloakRealmRoleConverter()</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>14</t>
+    <t>SecurityConfiguration(org.andante.config.security.converter.KeycloakRealmRoleConverter)</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1992,7 @@
         <v>59</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -1973,7 +2000,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -1981,7 +2008,7 @@
         <v>61</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -1989,7 +2016,7 @@
         <v>68</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2024,7 +2051,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -2035,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -2046,7 +2073,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -2057,15 +2084,15 @@
         <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>125</v>
@@ -2076,10 +2103,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -2087,7 +2114,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>125</v>
@@ -2098,7 +2125,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>125</v>
@@ -2109,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>125</v>
@@ -2120,7 +2147,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>125</v>
@@ -2131,7 +2158,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>125</v>
@@ -2142,7 +2169,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>125</v>
@@ -2153,7 +2180,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>125</v>
@@ -2164,7 +2191,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>125</v>
@@ -2175,7 +2202,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>125</v>
@@ -2186,7 +2213,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>125</v>
@@ -2197,7 +2224,7 @@
         <v>39</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>125</v>
@@ -2205,120 +2232,120 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>125</v>
@@ -2326,10 +2353,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>125</v>
@@ -2340,10 +2367,87 @@
         <v>68</v>
       </c>
       <c r="B31" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C37" t="s" s="0">
         <v>125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2422,10 +2526,10 @@
         <v>89</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2436,10 +2540,10 @@
         <v>90</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2450,10 +2554,10 @@
         <v>91</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -2464,10 +2568,10 @@
         <v>92</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2579,7 +2683,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -2601,7 +2705,7 @@
         <v>68</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>32</v>
@@ -2615,7 +2719,7 @@
         <v>68</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>32</v>
@@ -2629,7 +2733,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>32</v>
@@ -2649,7 +2753,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -2663,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>110</v>

--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="136">
   <si>
     <t>Class Name</t>
   </si>
@@ -381,7 +381,7 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>7</t>
@@ -393,13 +393,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>41</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>KeycloakRole(java.lang.String, int, java.lang.String)</t>
@@ -2008,7 +2002,7 @@
         <v>61</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -2016,7 +2010,7 @@
         <v>68</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2045,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -2062,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -2084,7 +2078,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -2092,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -2117,7 +2111,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -2128,7 +2122,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -2139,7 +2133,7 @@
         <v>54</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -2150,7 +2144,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -2161,7 +2155,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -2172,7 +2166,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
@@ -2183,7 +2177,7 @@
         <v>49</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -2194,7 +2188,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -2205,7 +2199,7 @@
         <v>47</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -2216,7 +2210,7 @@
         <v>40</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18">
@@ -2227,7 +2221,7 @@
         <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -2238,7 +2232,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -2246,7 +2240,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>122</v>
@@ -2260,7 +2254,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -2268,7 +2262,7 @@
         <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>110</v>
@@ -2290,10 +2284,10 @@
         <v>59</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -2312,10 +2306,10 @@
         <v>84</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -2326,7 +2320,7 @@
         <v>62</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -2337,7 +2331,7 @@
         <v>66</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -2348,7 +2342,7 @@
         <v>67</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -2356,10 +2350,10 @@
         <v>61</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -2370,7 +2364,7 @@
         <v>70</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32">
@@ -2381,7 +2375,7 @@
         <v>72</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33">
@@ -2403,7 +2397,7 @@
         <v>79</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -2414,7 +2408,7 @@
         <v>69</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -2425,7 +2419,7 @@
         <v>76</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -2436,7 +2430,7 @@
         <v>77</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -2444,10 +2438,10 @@
         <v>68</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="136">
   <si>
     <t>Class Name</t>
   </si>
@@ -72,6 +72,12 @@
     <t>java.lang.String</t>
   </si>
   <si>
+    <t>KeycloakRole(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>getClass()</t>
   </si>
   <si>
@@ -120,9 +126,6 @@
     <t>$values()</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>getDeclaringClass()</t>
   </si>
   <si>
@@ -144,18 +147,33 @@
     <t>org.andante.config.gateway.GatewayConfiguration</t>
   </si>
   <si>
+    <t>gatewayRoutes(org.springframework.cloud.gateway.route.builder.RouteLocatorBuilder)</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
+  </si>
+  <si>
+    <t>lambda$gatewayRoutes$3(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.route.builder.Buildable</t>
+  </si>
+  <si>
+    <t>lambda$gatewayRoutes$7(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
+  </si>
+  <si>
+    <t>lambda$gatewayRoutes$11(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
+  </si>
+  <si>
+    <t>lambda$gatewayRoutes$1(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
+  </si>
+  <si>
     <t>lambda$gatewayRoutes$2(org.springframework.cloud.gateway.route.builder.GatewayFilterSpec)</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.route.builder.UriSpec</t>
   </si>
   <si>
-    <t>gatewayRoutes(org.springframework.cloud.gateway.route.builder.RouteLocatorBuilder)</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
-  </si>
-  <si>
     <t>lambda$gatewayRoutes$4(org.springframework.cloud.gateway.route.builder.GatewayFilterSpec)</t>
   </si>
   <si>
@@ -165,36 +183,27 @@
     <t>lambda$gatewayRoutes$8(org.springframework.cloud.gateway.route.builder.GatewayFilterSpec)</t>
   </si>
   <si>
-    <t>lambda$gatewayRoutes$3(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.route.builder.Buildable</t>
-  </si>
-  <si>
     <t>lambda$gatewayRoutes$5(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
   </si>
   <si>
     <t>lambda$gatewayRoutes$6(org.springframework.cloud.gateway.route.builder.GatewayFilterSpec)</t>
   </si>
   <si>
-    <t>lambda$gatewayRoutes$7(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
-  </si>
-  <si>
-    <t>lambda$gatewayRoutes$11(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
-  </si>
-  <si>
     <t>lambda$gatewayRoutes$10(org.springframework.cloud.gateway.route.builder.GatewayFilterSpec)</t>
   </si>
   <si>
     <t>lambda$gatewayRoutes$9(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
   </si>
   <si>
-    <t>lambda$gatewayRoutes$1(org.springframework.cloud.gateway.route.builder.PredicateSpec)</t>
+    <t>GatewayConfiguration(org.springframework.cloud.gateway.filter.factory.TokenRelayGatewayFilterFactory)</t>
   </si>
   <si>
     <t>org.andante.config.security.filter.CrossOriginRequestSharingFilter</t>
   </si>
   <si>
+    <t>CrossOriginRequestSharingFilter()</t>
+  </si>
+  <si>
     <t>filter(org.springframework.web.server.ServerWebExchange, org.springframework.web.server.WebFilterChain)</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
     <t>org.andante.GatewayApplication</t>
   </si>
   <si>
+    <t>GatewayApplication()</t>
+  </si>
+  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
@@ -216,6 +228,9 @@
     <t>reactor.core.publisher.Flux</t>
   </si>
   <si>
+    <t>KeycloakRealmRoleConverter()</t>
+  </si>
+  <si>
     <t>andThen(org.springframework.core.convert.converter.Converter)</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>lambda$securityWebFilterChain$1(org.springframework.security.config.web.server.ServerHttpSecurity$OAuth2ResourceServerSpec$JwtSpec)</t>
   </si>
   <si>
+    <t>SecurityConfiguration(org.andante.config.security.converter.KeycloakRealmRoleConverter)</t>
+  </si>
+  <si>
     <t>lambda$securityWebFilterChain$0(int)</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>hi()</t>
   </si>
   <si>
+    <t>GatewayController()</t>
+  </si>
+  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -312,30 +333,30 @@
     <t>allowedHeaders</t>
   </si>
   <si>
+    <t>exposedHeaders</t>
+  </si>
+  <si>
     <t>allowedOrigins</t>
   </si>
   <si>
-    <t>exposedHeaders</t>
-  </si>
-  <si>
     <t>allowedMethods</t>
   </si>
   <si>
+    <t>REALM_ACCESS</t>
+  </si>
+  <si>
     <t>ROLES</t>
   </si>
   <si>
-    <t>REALM_ACCESS</t>
+    <t>java.util.List</t>
+  </si>
+  <si>
+    <t>jwkSetUri</t>
   </si>
   <si>
     <t>keycloakRealmRoleConverter</t>
   </si>
   <si>
-    <t>java.util.List</t>
-  </si>
-  <si>
-    <t>jwkSetUri</t>
-  </si>
-  <si>
     <t>disabledSecurityEndpoints</t>
   </si>
   <si>
@@ -396,30 +417,12 @@
     <t>41</t>
   </si>
   <si>
-    <t>KeycloakRole(java.lang.String, int, java.lang.String)</t>
-  </si>
-  <si>
-    <t>GatewayConfiguration(org.springframework.cloud.gateway.filter.factory.TokenRelayGatewayFilterFactory)</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>CrossOriginRequestSharingFilter()</t>
-  </si>
-  <si>
-    <t>GatewayApplication()</t>
-  </si>
-  <si>
-    <t>GatewayController()</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>KeycloakRealmRoleConverter()</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -427,9 +430,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>SecurityConfiguration(org.andante.config.security.converter.KeycloakRealmRoleConverter)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -589,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -597,13 +597,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -625,13 +625,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -639,13 +639,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -681,13 +681,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -695,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
@@ -709,13 +709,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -723,13 +723,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -740,10 +740,10 @@
         <v>33</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -785,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -796,29 +796,29 @@
         <v>37</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>7</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>9</v>
@@ -846,234 +846,234 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>45</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>46</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>51</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -1084,38 +1084,38 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
@@ -1126,41 +1126,41 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>11</v>
@@ -1168,52 +1168,52 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
@@ -1224,80 +1224,80 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -1308,27 +1308,27 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
         <v>11</v>
@@ -1336,38 +1336,38 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -1378,13 +1378,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s" s="0">
         <v>11</v>
@@ -1392,80 +1392,80 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -1476,27 +1476,27 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
         <v>11</v>
@@ -1504,55 +1504,55 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s" s="0">
         <v>11</v>
@@ -1560,52 +1560,52 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
@@ -1616,24 +1616,24 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
@@ -1658,69 +1658,69 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
         <v>11</v>
@@ -1728,69 +1728,69 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s" s="0">
         <v>11</v>
@@ -1798,66 +1798,66 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
@@ -1868,24 +1868,24 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
@@ -1896,44 +1896,128 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B105" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D104" t="s" s="0">
-        <v>80</v>
+      <c r="C105" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
@@ -1962,55 +2046,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2104,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2034,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
@@ -2042,10 +2126,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -2056,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -2064,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -2075,373 +2159,296 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2459,13 +2466,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -2473,16 +2480,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2503,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -2517,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
@@ -2531,13 +2552,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -2545,10 +2566,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>15</v>
@@ -2559,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -2570,27 +2591,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>15</v>
@@ -2598,13 +2619,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>15</v>
@@ -2612,13 +2633,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>15</v>
@@ -2626,13 +2647,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>15</v>
@@ -2640,13 +2661,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>15</v>
@@ -2654,13 +2675,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>15</v>
@@ -2668,100 +2689,100 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2779,70 +2800,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>62</v>
-      </c>
       <c r="E4" t="s" s="0">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2860,19 +2881,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2890,19 +2911,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>108</v>
-      </c>
       <c r="E1" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2920,19 +2941,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2950,36 +2971,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>116</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2997,19 +3018,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>116</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -312,18 +312,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>BLOGGER</t>
+  </si>
+  <si>
     <t>ADMIN</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>BLOGGER</t>
-  </si>
-  <si>
     <t>filterFactory</t>
   </si>
   <si>
@@ -333,31 +333,31 @@
     <t>allowedHeaders</t>
   </si>
   <si>
+    <t>allowedOrigins</t>
+  </si>
+  <si>
+    <t>allowedMethods</t>
+  </si>
+  <si>
     <t>exposedHeaders</t>
   </si>
   <si>
-    <t>allowedOrigins</t>
-  </si>
-  <si>
-    <t>allowedMethods</t>
+    <t>ROLES</t>
   </si>
   <si>
     <t>REALM_ACCESS</t>
   </si>
   <si>
-    <t>ROLES</t>
-  </si>
-  <si>
     <t>java.util.List</t>
   </si>
   <si>
+    <t>keycloakRealmRoleConverter</t>
+  </si>
+  <si>
+    <t>disabledSecurityEndpoints</t>
+  </si>
+  <si>
     <t>jwkSetUri</t>
-  </si>
-  <si>
-    <t>keycloakRealmRoleConverter</t>
-  </si>
-  <si>
-    <t>disabledSecurityEndpoints</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -2541,10 +2541,10 @@
         <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -2555,10 +2555,10 @@
         <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2569,10 +2569,10 @@
         <v>98</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2583,10 +2583,10 @@
         <v>99</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -2712,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2720,7 +2720,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>17</v>
@@ -2734,7 +2734,7 @@
         <v>73</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>17</v>
@@ -2748,13 +2748,13 @@
         <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2776,7 +2776,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>17</v>
@@ -2997,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>117</v>

--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="136">
   <si>
     <t>Class Name</t>
   </si>
@@ -297,10 +297,10 @@
     <t>org.andante.GatewayController</t>
   </si>
   <si>
+    <t>GatewayController()</t>
+  </si>
+  <si>
     <t>hi()</t>
-  </si>
-  <si>
-    <t>GatewayController()</t>
   </si>
   <si>
     <t>Field Name</t>
@@ -2104,7 +2104,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2148,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>129</v>
@@ -2159,21 +2159,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
@@ -2181,10 +2181,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
@@ -2192,10 +2192,10 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
@@ -2203,7 +2203,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>118</v>
@@ -2214,7 +2214,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>118</v>
@@ -2225,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>118</v>
@@ -2236,7 +2236,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>118</v>
@@ -2247,7 +2247,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>118</v>
@@ -2258,7 +2258,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>118</v>
@@ -2269,7 +2269,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>118</v>
@@ -2280,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>118</v>
@@ -2291,7 +2291,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>118</v>
@@ -2302,7 +2302,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>118</v>
@@ -2310,54 +2310,54 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>118</v>
@@ -2365,65 +2365,65 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>118</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>118</v>
@@ -2445,9 +2445,86 @@
         <v>73</v>
       </c>
       <c r="B31" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C38" t="s" s="0">
         <v>118</v>
       </c>
     </row>
@@ -2458,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2483,13 +2560,13 @@
         <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2497,12 +2574,138 @@
         <v>90</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>11</v>
       </c>
     </row>

--- a/data/backend/gateway_structure.xlsx
+++ b/data/backend/gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
   <si>
     <t>Class Name</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>41</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>11</t>
@@ -2104,7 +2107,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2129,7 +2132,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -2140,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -2148,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>129</v>
@@ -2159,21 +2162,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -2181,10 +2184,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -2192,10 +2195,10 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -2203,10 +2206,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -2214,10 +2217,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -2225,10 +2228,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -2236,10 +2239,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2247,10 +2250,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2258,10 +2261,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2269,10 +2272,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -2280,10 +2283,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -2291,10 +2294,10 @@
         <v>40</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
@@ -2302,142 +2305,142 @@
         <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -2445,87 +2448,10 @@
         <v>73</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
